--- a/sampledatafoodsales copy.xlsx
+++ b/sampledatafoodsales copy.xlsx
@@ -397,323 +397,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v/>
+        <v>Site</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Config Name</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Username</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Password</v>
+      </c>
+      <c r="E1" t="str">
+        <v>URL</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v/>
+        <v>LA</v>
       </c>
       <c r="B2" t="str">
-        <v>Validatation</v>
+        <v>Demo_LA</v>
       </c>
       <c r="C2" t="str">
-        <v>API</v>
+        <v>sa1</v>
       </c>
       <c r="D2" t="str">
-        <v>IDO</v>
+        <v>1</v>
       </c>
       <c r="E2" t="str">
-        <v xml:space="preserve">Method </v>
-      </c>
-      <c r="F2" t="str">
-        <v>Parameter</v>
-      </c>
-      <c r="G2" t="str">
-        <v>Return</v>
+        <v xml:space="preserve">﻿http://20.247.180.239/IDORequestService</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>1</v>
+        <v>LA</v>
       </c>
       <c r="B3" t="str">
-        <v>Trans Date</v>
+        <v>Demo_LA</v>
       </c>
       <c r="C3" t="str">
-        <v xml:space="preserve">Invoke </v>
+        <v>sa2</v>
       </c>
       <c r="D3" t="str">
-        <v>SLPeriods</v>
+        <v>2</v>
       </c>
       <c r="E3" t="str">
-        <v>DateChkSp</v>
-      </c>
-      <c r="F3" t="str">
-        <v xml:space="preserve">&lt;trans_date&gt;, 'Transaction Date', '@%update', , , </v>
-      </c>
-      <c r="G3" t="str">
-        <v xml:space="preserve">Message, Severity </v>
+        <v xml:space="preserve">﻿http://20.247.180.239/IDORequestService</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2</v>
+        <v>LA</v>
       </c>
       <c r="B4" t="str">
-        <v>Item</v>
+        <v>Demo_LA</v>
       </c>
       <c r="C4" t="str">
-        <v>Load Collection</v>
+        <v>sa3</v>
       </c>
       <c r="D4" t="str">
-        <v>SLItems</v>
+        <v>34</v>
       </c>
       <c r="E4" t="str">
-        <v>Filter: Item</v>
-      </c>
-      <c r="F4" t="str">
-        <v/>
-      </c>
-      <c r="G4" t="str">
-        <v>Invalid Item, LotTracked, SerialTracked, UM</v>
+        <v xml:space="preserve">﻿http://20.247.180.239/IDORequestService</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>3</v>
+        <v>LA</v>
       </c>
       <c r="B5" t="str">
-        <v>Whse</v>
+        <v>Demo_LA</v>
       </c>
       <c r="C5" t="str">
-        <v>Load Collection</v>
+        <v>sa4</v>
       </c>
       <c r="D5" t="str">
-        <v>SLItemWhses</v>
+        <v>5</v>
       </c>
       <c r="E5" t="str">
-        <v>Filter: Item, Whse</v>
-      </c>
-      <c r="F5" t="str">
-        <v/>
-      </c>
-      <c r="G5" t="str">
-        <v>Invalid Item and Warehouse</v>
+        <v xml:space="preserve">﻿http://20.247.180.239/IDORequestService</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>4</v>
+        <v>LA</v>
       </c>
       <c r="B6" t="str">
-        <v>Loc</v>
+        <v>Demo_LA</v>
       </c>
       <c r="C6" t="str">
-        <v>Load Collection</v>
+        <v>sa5</v>
       </c>
       <c r="D6" t="str">
-        <v>SLLocations</v>
+        <v>77</v>
       </c>
       <c r="E6" t="str">
-        <v>Filter: Loc</v>
-      </c>
-      <c r="F6" t="str">
-        <v/>
-      </c>
-      <c r="G6" t="str">
-        <v>Invalid Location</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>5</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Qty on hand</v>
-      </c>
-      <c r="C7" t="str">
-        <v/>
-      </c>
-      <c r="D7" t="str">
-        <v>Must greater than zero</v>
-      </c>
-      <c r="E7" t="str">
-        <v/>
-      </c>
-      <c r="F7" t="str">
-        <v/>
-      </c>
-      <c r="G7" t="str">
-        <v>qty_on_hand Must greater than zero</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>6</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Reason Code</v>
-      </c>
-      <c r="C8" t="str">
-        <v xml:space="preserve">Invoke </v>
-      </c>
-      <c r="D8" t="str">
-        <v>SLReasons</v>
-      </c>
-      <c r="E8" t="str">
-        <v>ReasonGetInvAdjAcctSp</v>
-      </c>
-      <c r="F8" t="str">
-        <v xml:space="preserve">&lt;reason_code&gt;,'MISC RCPT', &lt;Item&gt;, , , , , , , , , , , , , </v>
-      </c>
-      <c r="G8" t="str">
-        <v>RVAR C(Acct), RVAR C(AcctUnit1), RVAR C(AcctUnit2), RVAR C(AcctUnit3), RVAR C(AcctUnit4), Message,Severity</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>7</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Check Physical Count in place</v>
-      </c>
-      <c r="C9" t="str">
-        <v xml:space="preserve">Invoke </v>
-      </c>
-      <c r="D9" t="str">
-        <v>SLWhses</v>
-      </c>
-      <c r="E9" t="str">
-        <v>CheckWhsePhyInvFlgSp</v>
-      </c>
-      <c r="F9" t="str">
-        <v xml:space="preserve">&lt;Whse&gt;, &lt;Site&gt;, , </v>
-      </c>
-      <c r="G9" t="str">
-        <v>RVAR V(WhsePhyInvFlg), Message</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>8</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Get Default Cost</v>
-      </c>
-      <c r="C10" t="str">
-        <v xml:space="preserve">Invoke </v>
-      </c>
-      <c r="D10" t="str">
-        <v>SLItems</v>
-      </c>
-      <c r="E10" t="str">
-        <v>MisReceiptItemWhseGetCostValuesSp</v>
-      </c>
-      <c r="F10" t="str">
-        <v xml:space="preserve">&lt;Whse&gt;, &lt;Item&gt;, , , , , , , </v>
-      </c>
-      <c r="G10" t="str">
-        <v>RVAR P(MatlCost), RVAR P(LbrCost), RVAR P(FovhdCost), RVAR P(VovhdCost), RVAR P(OutCost), RVAR P(UnitCost), Message, Severity</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>9</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Check Obsolete Item</v>
-      </c>
-      <c r="C11" t="str">
-        <v xml:space="preserve">Invoke </v>
-      </c>
-      <c r="D11" t="str">
-        <v>SLItems</v>
-      </c>
-      <c r="E11" t="str">
-        <v>ObsSlowSp</v>
-      </c>
-      <c r="F11" t="str">
-        <v xml:space="preserve">&lt;Item&gt;, 1, 0, 0, 1, , , , </v>
-      </c>
-      <c r="G11" t="str">
-        <v>Message, Severity</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>10</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Check Item Loc Exists</v>
-      </c>
-      <c r="C12" t="str">
-        <v>Load Collection</v>
-      </c>
-      <c r="D12" t="str">
-        <v>SLItemLocs</v>
-      </c>
-      <c r="E12" t="str">
-        <v>Filter: Item, Loc</v>
-      </c>
-      <c r="F12" t="str">
-        <v/>
-      </c>
-      <c r="G12" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v/>
-      </c>
-      <c r="B13" t="str">
-        <v>If Item Locs not exists</v>
-      </c>
-      <c r="C13" t="str">
-        <v/>
-      </c>
-      <c r="D13" t="str">
-        <v/>
-      </c>
-      <c r="E13" t="str">
-        <v/>
-      </c>
-      <c r="F13" t="str">
-        <v/>
-      </c>
-      <c r="G13" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>11</v>
-      </c>
-      <c r="B15" t="str">
-        <v>Add Location</v>
-      </c>
-      <c r="C15" t="str">
-        <v xml:space="preserve">Invoke </v>
-      </c>
-      <c r="D15" t="str">
-        <v>SLItemLocs</v>
-      </c>
-      <c r="E15" t="str">
-        <v>ItemLocAddSp</v>
-      </c>
-      <c r="F15" t="str">
-        <v xml:space="preserve">&lt;Whse&gt;, &lt;Item&gt;, &lt;Loc&gt;, 1, 0, 0, 0, 0, 0, 0, 0, , </v>
-      </c>
-      <c r="G15" t="str">
-        <v>Message, Severity</v>
+        <v xml:space="preserve">﻿http://20.247.180.239/IDORequestService</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G15"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E6"/>
   </ignoredErrors>
 </worksheet>
 </file>